--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/S100a9-Tlr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/S100a9-Tlr4.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1102606666666667</v>
+        <v>0.7540426666666667</v>
       </c>
       <c r="H2">
-        <v>0.330782</v>
+        <v>2.262128</v>
       </c>
       <c r="I2">
-        <v>0.001202219334792345</v>
+        <v>0.06765183538434597</v>
       </c>
       <c r="J2">
-        <v>0.001202219334792345</v>
+        <v>0.06765183538434595</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.908652666666666</v>
+        <v>7.658574666666667</v>
       </c>
       <c r="N2">
-        <v>23.725958</v>
+        <v>22.975724</v>
       </c>
       <c r="O2">
-        <v>0.1059802478036631</v>
+        <v>0.1056247585863608</v>
       </c>
       <c r="P2">
-        <v>0.1086148104297394</v>
+        <v>0.1080674328374073</v>
       </c>
       <c r="Q2">
-        <v>0.8720133154617776</v>
+        <v>5.774892064519111</v>
       </c>
       <c r="R2">
-        <v>7.848119839155999</v>
+        <v>51.97402858067201</v>
       </c>
       <c r="S2">
-        <v>0.0001274115030156478</v>
+        <v>0.007145708780395766</v>
       </c>
       <c r="T2">
-        <v>0.0001305788251434379</v>
+        <v>0.007310960176725141</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1102606666666667</v>
+        <v>0.7540426666666667</v>
       </c>
       <c r="H3">
-        <v>0.330782</v>
+        <v>2.262128</v>
       </c>
       <c r="I3">
-        <v>0.001202219334792345</v>
+        <v>0.06765183538434597</v>
       </c>
       <c r="J3">
-        <v>0.001202219334792345</v>
+        <v>0.06765183538434595</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>32.309272</v>
       </c>
       <c r="O3">
-        <v>0.1443206066922968</v>
+        <v>0.1485332542774742</v>
       </c>
       <c r="P3">
-        <v>0.1479082721718923</v>
+        <v>0.1519682288090475</v>
       </c>
       <c r="Q3">
-        <v>1.187480623411555</v>
+        <v>8.120856538979556</v>
       </c>
       <c r="R3">
-        <v>10.687325610704</v>
+        <v>73.087708850816</v>
       </c>
       <c r="S3">
-        <v>0.0001735050237744408</v>
+        <v>0.01004854726748089</v>
       </c>
       <c r="T3">
-        <v>0.0001778181845807776</v>
+        <v>0.0102809295990403</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1102606666666667</v>
+        <v>0.7540426666666667</v>
       </c>
       <c r="H4">
-        <v>0.330782</v>
+        <v>2.262128</v>
       </c>
       <c r="I4">
-        <v>0.001202219334792345</v>
+        <v>0.06765183538434597</v>
       </c>
       <c r="J4">
-        <v>0.001202219334792345</v>
+        <v>0.06765183538434595</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.37830233333333</v>
+        <v>21.58649266666667</v>
       </c>
       <c r="N4">
-        <v>58.134907</v>
+        <v>64.759478</v>
       </c>
       <c r="O4">
-        <v>0.2596797924831069</v>
+        <v>0.2977144150029286</v>
       </c>
       <c r="P4">
-        <v>0.2661351715768665</v>
+        <v>0.3045993475265701</v>
       </c>
       <c r="Q4">
-        <v>2.136664534141556</v>
+        <v>16.27713649435378</v>
       </c>
       <c r="R4">
-        <v>19.229980807274</v>
+        <v>146.494228449184</v>
       </c>
       <c r="S4">
-        <v>0.000312192067378055</v>
+        <v>0.02014092659532498</v>
       </c>
       <c r="T4">
-        <v>0.0003199528489379871</v>
+        <v>0.0206067049170467</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1102606666666667</v>
+        <v>0.7540426666666667</v>
       </c>
       <c r="H5">
-        <v>0.330782</v>
+        <v>2.262128</v>
       </c>
       <c r="I5">
-        <v>0.001202219334792345</v>
+        <v>0.06765183538434597</v>
       </c>
       <c r="J5">
-        <v>0.001202219334792345</v>
+        <v>0.06765183538434595</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.430231</v>
+        <v>4.9167055</v>
       </c>
       <c r="N5">
-        <v>10.860462</v>
+        <v>9.833411</v>
       </c>
       <c r="O5">
-        <v>0.07276804928312694</v>
+        <v>0.06780972362103574</v>
       </c>
       <c r="P5">
-        <v>0.04971799331809439</v>
+        <v>0.04625192585030714</v>
       </c>
       <c r="Q5">
-        <v>0.598740890214</v>
+        <v>3.707405726434667</v>
       </c>
       <c r="R5">
-        <v>3.592445341284</v>
+        <v>22.244434358608</v>
       </c>
       <c r="S5">
-        <v>8.748315580329747E-05</v>
+        <v>0.004587452259868306</v>
       </c>
       <c r="T5">
-        <v>5.97719328540897E-05</v>
+        <v>0.003129027673833954</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1102606666666667</v>
+        <v>0.7540426666666667</v>
       </c>
       <c r="H6">
-        <v>0.330782</v>
+        <v>2.262128</v>
       </c>
       <c r="I6">
-        <v>0.001202219334792345</v>
+        <v>0.06765183538434597</v>
       </c>
       <c r="J6">
-        <v>0.001202219334792345</v>
+        <v>0.06765183538434595</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.136893</v>
+        <v>27.57585133333333</v>
       </c>
       <c r="N6">
-        <v>93.410679</v>
+        <v>82.727554</v>
       </c>
       <c r="O6">
-        <v>0.4172513037378061</v>
+        <v>0.3803178485122005</v>
       </c>
       <c r="P6">
-        <v>0.4276237525034073</v>
+        <v>0.3891130649766679</v>
       </c>
       <c r="Q6">
-        <v>3.433174580108667</v>
+        <v>20.79336847499022</v>
       </c>
       <c r="R6">
-        <v>30.898571220978</v>
+        <v>187.140316274912</v>
       </c>
       <c r="S6">
-        <v>0.0005016275848209041</v>
+        <v>0.02572920048127602</v>
       </c>
       <c r="T6">
-        <v>0.0005140975432760528</v>
+        <v>0.02632421301769984</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.461386</v>
+        <v>8.291411999999999</v>
       </c>
       <c r="H7">
-        <v>19.384158</v>
+        <v>24.874236</v>
       </c>
       <c r="I7">
-        <v>0.07045126257253938</v>
+        <v>0.7438958888194531</v>
       </c>
       <c r="J7">
-        <v>0.07045126257253938</v>
+        <v>0.7438958888194531</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.908652666666666</v>
+        <v>7.658574666666667</v>
       </c>
       <c r="N7">
-        <v>23.725958</v>
+        <v>22.975724</v>
       </c>
       <c r="O7">
-        <v>0.1059802478036631</v>
+        <v>0.1056247585863608</v>
       </c>
       <c r="P7">
-        <v>0.1086148104297394</v>
+        <v>0.1080674328374073</v>
       </c>
       <c r="Q7">
-        <v>51.10085761926266</v>
+        <v>63.500397894096</v>
       </c>
       <c r="R7">
-        <v>459.907718573364</v>
+        <v>571.5035810468639</v>
       </c>
       <c r="S7">
-        <v>0.007466442265518659</v>
+        <v>0.07857382366994106</v>
       </c>
       <c r="T7">
-        <v>0.007652050528852157</v>
+        <v>0.08039091900301967</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.461386</v>
+        <v>8.291411999999999</v>
       </c>
       <c r="H8">
-        <v>19.384158</v>
+        <v>24.874236</v>
       </c>
       <c r="I8">
-        <v>0.07045126257253938</v>
+        <v>0.7438958888194531</v>
       </c>
       <c r="J8">
-        <v>0.07045126257253938</v>
+        <v>0.7438958888194531</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>32.309272</v>
       </c>
       <c r="O8">
-        <v>0.1443206066922968</v>
+        <v>0.1485332542774742</v>
       </c>
       <c r="P8">
-        <v>0.1479082721718923</v>
+        <v>0.1519682288090475</v>
       </c>
       <c r="Q8">
-        <v>69.58755925699732</v>
+        <v>89.29649519068799</v>
       </c>
       <c r="R8">
-        <v>626.2880333129759</v>
+        <v>803.6684567161919</v>
       </c>
       <c r="S8">
-        <v>0.01016756895670719</v>
+        <v>0.1104932772099875</v>
       </c>
       <c r="T8">
-        <v>0.01042032451943261</v>
+        <v>0.1130485406422244</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.461386</v>
+        <v>8.291411999999999</v>
       </c>
       <c r="H9">
-        <v>19.384158</v>
+        <v>24.874236</v>
       </c>
       <c r="I9">
-        <v>0.07045126257253938</v>
+        <v>0.7438958888194531</v>
       </c>
       <c r="J9">
-        <v>0.07045126257253938</v>
+        <v>0.7438958888194531</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.37830233333333</v>
+        <v>21.58649266666667</v>
       </c>
       <c r="N9">
-        <v>58.134907</v>
+        <v>64.759478</v>
       </c>
       <c r="O9">
-        <v>0.2596797924831069</v>
+        <v>0.2977144150029286</v>
       </c>
       <c r="P9">
-        <v>0.2661351715768665</v>
+        <v>0.3045993475265701</v>
       </c>
       <c r="Q9">
-        <v>125.2106914003673</v>
+        <v>178.982504334312</v>
       </c>
       <c r="R9">
-        <v>1126.896222603306</v>
+        <v>1610.842539008808</v>
       </c>
       <c r="S9">
-        <v>0.0182947692450099</v>
+        <v>0.2214685293629671</v>
       </c>
       <c r="T9">
-        <v>0.01874955885254964</v>
+        <v>0.2265902023621033</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.461386</v>
+        <v>8.291411999999999</v>
       </c>
       <c r="H10">
-        <v>19.384158</v>
+        <v>24.874236</v>
       </c>
       <c r="I10">
-        <v>0.07045126257253938</v>
+        <v>0.7438958888194531</v>
       </c>
       <c r="J10">
-        <v>0.07045126257253938</v>
+        <v>0.7438958888194531</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.430231</v>
+        <v>4.9167055</v>
       </c>
       <c r="N10">
-        <v>10.860462</v>
+        <v>9.833411</v>
       </c>
       <c r="O10">
-        <v>0.07276804928312694</v>
+        <v>0.06780972362103574</v>
       </c>
       <c r="P10">
-        <v>0.04971799331809439</v>
+        <v>0.04625192585030714</v>
       </c>
       <c r="Q10">
-        <v>35.086818560166</v>
+        <v>40.766430983166</v>
       </c>
       <c r="R10">
-        <v>210.520911360996</v>
+        <v>244.598585898996</v>
       </c>
       <c r="S10">
-        <v>0.005126600946937062</v>
+        <v>0.05044337462367185</v>
       </c>
       <c r="T10">
-        <v>0.003502695401832826</v>
+        <v>0.03440661749002567</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.461386</v>
+        <v>8.291411999999999</v>
       </c>
       <c r="H11">
-        <v>19.384158</v>
+        <v>24.874236</v>
       </c>
       <c r="I11">
-        <v>0.07045126257253938</v>
+        <v>0.7438958888194531</v>
       </c>
       <c r="J11">
-        <v>0.07045126257253938</v>
+        <v>0.7438958888194531</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.136893</v>
+        <v>27.57585133333333</v>
       </c>
       <c r="N11">
-        <v>93.410679</v>
+        <v>82.727554</v>
       </c>
       <c r="O11">
-        <v>0.4172513037378061</v>
+        <v>0.3803178485122005</v>
       </c>
       <c r="P11">
-        <v>0.4276237525034073</v>
+        <v>0.3891130649766679</v>
       </c>
       <c r="Q11">
-        <v>201.187484513698</v>
+        <v>228.642744655416</v>
       </c>
       <c r="R11">
-        <v>1810.687360623282</v>
+        <v>2057.784701898744</v>
       </c>
       <c r="S11">
-        <v>0.02939588115836656</v>
+        <v>0.2829168839528856</v>
       </c>
       <c r="T11">
-        <v>0.03012663326987214</v>
+        <v>0.28945960932208</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>85.14262166666667</v>
+        <v>2.100476</v>
       </c>
       <c r="H12">
-        <v>255.427865</v>
+        <v>6.301428</v>
       </c>
       <c r="I12">
-        <v>0.9283465180926683</v>
+        <v>0.1884522757962009</v>
       </c>
       <c r="J12">
-        <v>0.9283465180926682</v>
+        <v>0.1884522757962009</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.908652666666666</v>
+        <v>7.658574666666667</v>
       </c>
       <c r="N12">
-        <v>23.725958</v>
+        <v>22.975724</v>
       </c>
       <c r="O12">
-        <v>0.1059802478036631</v>
+        <v>0.1056247585863608</v>
       </c>
       <c r="P12">
-        <v>0.1086148104297394</v>
+        <v>0.1080674328374073</v>
       </c>
       <c r="Q12">
-        <v>673.3634218910744</v>
+        <v>16.08665228154133</v>
       </c>
       <c r="R12">
-        <v>6060.27079701967</v>
+        <v>144.779870533872</v>
       </c>
       <c r="S12">
-        <v>0.0983863940351288</v>
+        <v>0.01990522613602401</v>
       </c>
       <c r="T12">
-        <v>0.1008321810757438</v>
+        <v>0.0203655536576625</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>85.14262166666667</v>
+        <v>2.100476</v>
       </c>
       <c r="H13">
-        <v>255.427865</v>
+        <v>6.301428</v>
       </c>
       <c r="I13">
-        <v>0.9283465180926683</v>
+        <v>0.1884522757962009</v>
       </c>
       <c r="J13">
-        <v>0.9283465180926682</v>
+        <v>0.1884522757962009</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>32.309272</v>
       </c>
       <c r="O13">
-        <v>0.1443206066922968</v>
+        <v>0.1485332542774742</v>
       </c>
       <c r="P13">
-        <v>0.1479082721718923</v>
+        <v>0.1519682288090475</v>
       </c>
       <c r="Q13">
-        <v>916.9653740738089</v>
+        <v>22.62161680449066</v>
       </c>
       <c r="R13">
-        <v>8252.688366664281</v>
+        <v>203.594551240416</v>
       </c>
       <c r="S13">
-        <v>0.1339795327118152</v>
+        <v>0.02799142980000581</v>
       </c>
       <c r="T13">
-        <v>0.137310129467879</v>
+        <v>0.02863875856778279</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>85.14262166666667</v>
+        <v>2.100476</v>
       </c>
       <c r="H14">
-        <v>255.427865</v>
+        <v>6.301428</v>
       </c>
       <c r="I14">
-        <v>0.9283465180926683</v>
+        <v>0.1884522757962009</v>
       </c>
       <c r="J14">
-        <v>0.9283465180926682</v>
+        <v>0.1884522757962009</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.37830233333333</v>
+        <v>21.58649266666667</v>
       </c>
       <c r="N14">
-        <v>58.134907</v>
+        <v>64.759478</v>
       </c>
       <c r="O14">
-        <v>0.2596797924831069</v>
+        <v>0.2977144150029286</v>
       </c>
       <c r="P14">
-        <v>0.2661351715768665</v>
+        <v>0.3045993475265701</v>
       </c>
       <c r="Q14">
-        <v>1649.919464109284</v>
+        <v>45.34190977050934</v>
       </c>
       <c r="R14">
-        <v>14849.27517698355</v>
+        <v>408.077187934584</v>
       </c>
       <c r="S14">
-        <v>0.2410728311707189</v>
+        <v>0.0561049590446365</v>
       </c>
       <c r="T14">
-        <v>0.2470656598753788</v>
+        <v>0.05740244024742003</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>85.14262166666667</v>
+        <v>2.100476</v>
       </c>
       <c r="H15">
-        <v>255.427865</v>
+        <v>6.301428</v>
       </c>
       <c r="I15">
-        <v>0.9283465180926683</v>
+        <v>0.1884522757962009</v>
       </c>
       <c r="J15">
-        <v>0.9283465180926682</v>
+        <v>0.1884522757962009</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.430231</v>
+        <v>4.9167055</v>
       </c>
       <c r="N15">
-        <v>10.860462</v>
+        <v>9.833411</v>
       </c>
       <c r="O15">
-        <v>0.07276804928312694</v>
+        <v>0.06780972362103574</v>
       </c>
       <c r="P15">
-        <v>0.04971799331809439</v>
+        <v>0.04625192585030714</v>
       </c>
       <c r="Q15">
-        <v>462.344103595605</v>
+        <v>10.327421901818</v>
       </c>
       <c r="R15">
-        <v>2774.06462157363</v>
+        <v>61.96453141090799</v>
       </c>
       <c r="S15">
-        <v>0.06755396518038659</v>
+        <v>0.01277889673749559</v>
       </c>
       <c r="T15">
-        <v>0.04615552598340748</v>
+        <v>0.008716280686447515</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>85.14262166666667</v>
+        <v>2.100476</v>
       </c>
       <c r="H16">
-        <v>255.427865</v>
+        <v>6.301428</v>
       </c>
       <c r="I16">
-        <v>0.9283465180926683</v>
+        <v>0.1884522757962009</v>
       </c>
       <c r="J16">
-        <v>0.9283465180926682</v>
+        <v>0.1884522757962009</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>31.136893</v>
+        <v>27.57585133333333</v>
       </c>
       <c r="N16">
-        <v>93.410679</v>
+        <v>82.727554</v>
       </c>
       <c r="O16">
-        <v>0.4172513037378061</v>
+        <v>0.3803178485122005</v>
       </c>
       <c r="P16">
-        <v>0.4276237525034073</v>
+        <v>0.3891130649766679</v>
       </c>
       <c r="Q16">
-        <v>2651.076700574482</v>
+        <v>57.92241390523466</v>
       </c>
       <c r="R16">
-        <v>23859.69030517033</v>
+        <v>521.3017251471119</v>
       </c>
       <c r="S16">
-        <v>0.3873537949946187</v>
+        <v>0.07167176407803896</v>
       </c>
       <c r="T16">
-        <v>0.3969830216902591</v>
+        <v>0.07332924263688805</v>
       </c>
     </row>
   </sheetData>
